--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\CVE_Checker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\git\CVE_Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508A03F-4C12-4BF6-9828-68D90C3651E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE91B3-D6B3-4713-BE6C-EFCA9FB311C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="2205" windowWidth="43200" windowHeight="13005" xr2:uid="{B7193DEC-7976-4744-ACE9-87353D13DF37}"/>
+    <workbookView xWindow="0" yWindow="1010" windowWidth="25600" windowHeight="8410" xr2:uid="{B7193DEC-7976-4744-ACE9-87353D13DF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Matlab</t>
   </si>
@@ -47,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,7 +74,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -395,46 +389,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3102EEBC-DFF4-4BCF-9F64-4BE05B116E9D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>44348</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>44328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
         <v>44189</v>
       </c>
     </row>
